--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49886495450969</v>
+        <v>1.528376666666667</v>
       </c>
       <c r="H2">
-        <v>1.49886495450969</v>
+        <v>4.58513</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N2">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q2">
-        <v>5.17632914263581</v>
+        <v>9.018539067217779</v>
       </c>
       <c r="R2">
-        <v>5.17632914263581</v>
+        <v>81.16685160496</v>
       </c>
       <c r="S2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="T2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49886495450969</v>
+        <v>1.528376666666667</v>
       </c>
       <c r="H3">
-        <v>1.49886495450969</v>
+        <v>4.58513</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N3">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q3">
-        <v>166.256982923382</v>
+        <v>170.5541667763511</v>
       </c>
       <c r="R3">
-        <v>166.256982923382</v>
+        <v>1534.98750098716</v>
       </c>
       <c r="S3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="T3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49886495450969</v>
+        <v>1.528376666666667</v>
       </c>
       <c r="H4">
-        <v>1.49886495450969</v>
+        <v>4.58513</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q4">
-        <v>46.6226537234058</v>
+        <v>47.55167457268556</v>
       </c>
       <c r="R4">
-        <v>46.6226537234058</v>
+        <v>427.9650711541701</v>
       </c>
       <c r="S4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="T4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
     </row>
   </sheetData>
